--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\PycharmProjects\dltest\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\PycharmProjects\dltesthttp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="559">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,15 +186,2022 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>userRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tes@1.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店所在省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店所在市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄岩岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店所在区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店街道地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopLeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderIDNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510722199404282209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busLicenseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运业执照号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergCont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13003f2e4106fc814f68491003fc4ff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a427f4fc2b84d7f8aa1b444653c8848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzddmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxma@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localCountry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤尾屿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店所在区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localStreet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店街道地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopLeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderIDNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220203198001200125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busLicenseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198001200125112198001200125112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运业执照号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergCont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbfe60bcf0124a81be6fe0eeac14bcbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc2f28137c156d5348693beff3bc1f7c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_R_ADMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localProvince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localCountry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localStreet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒，葡萄酒，茶，其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖，五粮液，郎酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>membershipGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安切洛蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalIDNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510122198401253907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxRegNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122198401253907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busLicenseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicAccountName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商One</t>
+  </si>
+  <si>
+    <t>publicAccountNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicBankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民银行东海支行赤尾屿营业部</t>
+  </si>
+  <si>
+    <t>publicBankLocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿</t>
+  </si>
+  <si>
+    <t>privateAccountName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privateAccountNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privateBankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privateBankLocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnAddrDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路中段8号</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afterSaleContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afterSalePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_xs@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_R_SALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdcc108131604577b665f89c7359a6bf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商采购员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_cg@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_R_PURC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287b9ff320424ce2bf266dab1da18b61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商配送员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_ps@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55a23937b9f744c5ba00d211b5858e5e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_R_SEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商财务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_cg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99maxmaxmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_cw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01_cw@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a37a4d40c76418091121ebb97b6382a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_R_PURC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤尾屿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路中段8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安切洛蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211382774648564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路中段8号</t>
+  </si>
+  <si>
+    <t>成都银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011680000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通发票抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值税企业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收票人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收票人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路中段8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安切洛蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManProvince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depositBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxpayerRegistrationNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATzdd002@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511322198305126053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段E1804号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b12bb1f4942b48dc85ec605bb0557c1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0642f291ca7642ffb694aa07422c1027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211382774648888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段E1804号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011688888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路北段E1804号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收票人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzddmaxmaxmaxmaxmaxmaxmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21138277464856467890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162220202000116800001234567890123456789012345678901622202020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省东海省东海省东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760c708653d64be6b9c3011250c57df8</t>
+  </si>
+  <si>
+    <t>invoiceIdVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113827746481564561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011680001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongfang银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06339853dca0440dafcf743968a53b4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatproduct01</t>
+  </si>
+  <si>
+    <t>产品条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥泪大减价只要九九八只要九九八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceRetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceDanlu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁门红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testattea01MaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
+  </si>
+  <si>
+    <t>封面Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0654aa950b4345f59d1d33435dc0196a</t>
+  </si>
+  <si>
+    <t>merchStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情返回的sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportCod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款 0-支持 1-不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存标志 0-有 1-无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventoryFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶起购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷藏10度以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行标准号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB17323_2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产许可证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS411315050033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大米高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl3</t>
+  </si>
+  <si>
+    <t>albumPicUrl4</t>
+  </si>
+  <si>
+    <t>albumPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl6</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+  </si>
+  <si>
+    <t>detailPicUrl4</t>
+  </si>
+  <si>
+    <t>detailPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏 0-收藏 1-未收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d363f638e16b44f281a4812466f5deb6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6fb850120da449ef98a2c7e641100e02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,1087 +2209,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tes@1.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业超市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店所在省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店所在市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄岩岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店所在区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店街道地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopLeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderIDNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510722199404282209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busLicenseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运业执照号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergCont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13003f2e4106fc814f68491003fc4ff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a427f4fc2b84d7f8aa1b444653c8848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzddmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxmaxma@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localCountry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤尾屿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店所在区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localStreet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店街道地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopLeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderIDNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220203198001200125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busLicenseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>198001200125112198001200125112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运业执照号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergCont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbfe60bcf0124a81be6fe0eeac14bcbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc2f28137c156d5348693beff3bc1f7c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_R_ADMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localProvince</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localCountry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localStreet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白酒，葡萄酒，茶，其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessBrand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖，五粮液，郎酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>membershipGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerCapital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安切洛蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalIDNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510122198401253907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxRegNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122198401253907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busLicenseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publicAccountName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商One</t>
-  </si>
-  <si>
-    <t>publicAccountNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publicBankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人民银行东海支行赤尾屿营业部</t>
-  </si>
-  <si>
-    <t>publicBankLocal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省钓鱼岛赤尾屿</t>
-  </si>
-  <si>
-    <t>privateAccountName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privateAccountNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privateBankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privateBankLocal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returnAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returnAddrDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路中段8号</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afterSaleContact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afterSalePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商销售员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_xs@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_R_SALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_xs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdcc108131604577b665f89c7359a6bf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商采购员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_cg@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_R_PURC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>287b9ff320424ce2bf266dab1da18b61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商配送员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_ps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_ps@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55a23937b9f744c5ba00d211b5858e5e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_R_SEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商财务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_cg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99maxmaxmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_cw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01_cw@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2a37a4d40c76418091121ebb97b6382a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_R_PURC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钓鱼岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤尾屿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路中段8号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安切洛蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211382774648564</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省钓鱼岛赤尾屿滨江东路中段8号</t>
-  </si>
-  <si>
-    <t>成都银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020200011680000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通发票抬头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增值税企业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳税人识别号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收票人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收票人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路中段8号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安切洛蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveManAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveManName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveManTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveManProvince</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountBank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depositBank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxpayerRegistrationNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATzdd002@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>511322198305126053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段E1804号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b12bb1f4942b48dc85ec605bb0557c1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0642f291ca7642ffb694aa07422c1027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211382774648888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段E1804号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020200011688888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省钓鱼岛赤尾屿滨江东路北段E1804号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收票人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzddmaxmaxmaxmaxmaxmaxmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21138277464856467890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162220202000116800001234567890123456789012345678901622202020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省东海省东海省东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>760c708653d64be6b9c3011250c57df8</t>
-  </si>
-  <si>
-    <t>invoiceIdVat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1290,922 +2221,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113827746481564561</t>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020200011680001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dongfang银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06339853dca0440dafcf743968a53b4e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatproduct01</t>
-  </si>
-  <si>
-    <t>产品条码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥泪大减价只要九九八只要九九八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceDanlu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祁门红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testattea01MaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
-  </si>
-  <si>
-    <t>封面Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0654aa950b4345f59d1d33435dc0196a</t>
-  </si>
-  <si>
-    <t>merchStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情返回的sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportCod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款 0-支持 1-不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存标志 0-有 1-无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventoryFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶起购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫升（ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷藏10度以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行标准号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB17323_2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产许可证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QS411315050033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大米高粱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酱香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl3</t>
-  </si>
-  <si>
-    <t>albumPicUrl4</t>
-  </si>
-  <si>
-    <t>albumPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl6</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-  </si>
-  <si>
-    <t>detailPicUrl4</t>
-  </si>
-  <si>
-    <t>detailPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收藏 0-收藏 1-未收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d363f638e16b44f281a4812466f5deb6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportCod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2594,271 +2618,271 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
@@ -2866,15 +2890,15 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -2885,154 +2909,154 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3086,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3076,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3087,29 +3111,29 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3117,43 +3141,43 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -3164,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -3175,100 +3199,100 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
         <v>112</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
         <v>115</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -3276,138 +3300,138 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3422,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3448,645 +3472,653 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" t="s">
         <v>385</v>
-      </c>
-      <c r="C22" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C33" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C43" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>535</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>550</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4124,429 +4156,429 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C33" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C43" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C45" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4584,500 +4616,500 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" t="s">
         <v>385</v>
-      </c>
-      <c r="C22" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C38" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C39" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C40" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C44" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5115,500 +5147,500 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C38" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C39" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C40" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C44" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5640,40 +5672,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5721,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5729,39 +5761,39 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5769,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5782,10 +5814,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5793,207 +5825,207 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6001,154 +6033,154 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6177,66 +6209,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6244,31 +6276,31 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6296,66 +6328,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6363,31 +6395,31 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6415,66 +6447,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6482,31 +6514,31 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6531,66 +6563,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6598,31 +6630,31 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6636,10 +6668,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6658,15 +6690,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -6674,18 +6706,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -6706,10 +6738,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6749,7 +6781,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6757,7 +6789,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>326</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6797,154 +6829,178 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>319</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>329</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>541</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>542</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>548</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6958,8 +7014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6981,7 +7037,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -6997,15 +7053,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -7013,7 +7069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -7021,15 +7077,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -7037,7 +7093,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -7045,7 +7101,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -7069,7 +7125,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -7077,7 +7133,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7085,7 +7141,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -7093,7 +7149,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -7101,135 +7157,135 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -7270,10 +7326,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -7281,18 +7337,18 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -7300,10 +7356,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -7311,43 +7367,43 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -7358,7 +7414,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -7369,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -7377,10 +7433,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -7388,85 +7444,85 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7474,135 +7530,135 @@
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\PycharmProjects\dltesthttp\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\dltesthttp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="559">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,43 +1216,928 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>21138277464856467890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162220202000116800001234567890123456789012345678901622202020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省东海省东海省东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760c708653d64be6b9c3011250c57df8</t>
+  </si>
+  <si>
+    <t>invoiceIdVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试自动化配送商01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21138277464856467890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162220202000116800001234567890123456789012345678901622202020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省东海省东海省东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01</t>
+    <t>113827746481564561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011680001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongfang银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06339853dca0440dafcf743968a53b4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatproduct01</t>
+  </si>
+  <si>
+    <t>产品条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥泪大减价只要九九八只要九九八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceRetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceDanlu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁门红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testattea01MaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
+  </si>
+  <si>
+    <t>封面Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0654aa950b4345f59d1d33435dc0196a</t>
+  </si>
+  <si>
+    <t>merchStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情返回的sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportCod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款 0-支持 1-不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存标志 0-有 1-无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventoryFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶起购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷藏10度以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行标准号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB17323_2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产许可证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS411315050033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大米高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl3</t>
+  </si>
+  <si>
+    <t>albumPicUrl4</t>
+  </si>
+  <si>
+    <t>albumPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl6</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+  </si>
+  <si>
+    <t>detailPicUrl4</t>
+  </si>
+  <si>
+    <t>detailPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏 0-收藏 1-未收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d363f638e16b44f281a4812466f5deb6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1260,29 +2145,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>760c708653d64be6b9c3011250c57df8</t>
-  </si>
-  <si>
-    <t>invoiceIdVat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113827746481564561</t>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1290,946 +2229,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020200011680001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dongfang银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06339853dca0440dafcf743968a53b4e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatproduct01</t>
-  </si>
-  <si>
-    <t>产品条码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥泪大减价只要九九八只要九九八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceDanlu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祁门红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testattea01MaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
-  </si>
-  <si>
-    <t>封面Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0654aa950b4345f59d1d33435dc0196a</t>
-  </si>
-  <si>
-    <t>merchStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情返回的sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportCod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款 0-支持 1-不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存标志 0-有 1-无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventoryFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶起购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫升（ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷藏10度以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行标准号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB17323_2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产许可证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QS411315050033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大米高粱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酱香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl3</t>
-  </si>
-  <si>
-    <t>albumPicUrl4</t>
-  </si>
-  <si>
-    <t>albumPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl6</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-  </si>
-  <si>
-    <t>detailPicUrl4</t>
-  </si>
-  <si>
-    <t>detailPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收藏 0-收藏 1-未收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d363f638e16b44f281a4812466f5deb6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2621,7 +2621,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2917,7 +2917,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2941,18 +2941,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3218,7 +3218,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
@@ -3229,7 +3229,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -3324,7 +3324,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>301</v>
+        <v>558</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3335,7 +3335,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
         <v>249</v>
@@ -3346,7 +3346,7 @@
         <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C26" t="s">
         <v>250</v>
@@ -3379,7 +3379,7 @@
         <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
         <v>253</v>
@@ -3390,7 +3390,7 @@
         <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s">
         <v>254</v>
@@ -3401,7 +3401,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -3423,7 +3423,7 @@
         <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -3431,7 +3431,7 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3472,653 +3472,653 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" t="s">
         <v>345</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>453</v>
-      </c>
-      <c r="C19" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" t="s">
         <v>371</v>
-      </c>
-      <c r="C20" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
         <v>373</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="C34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>412</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>424</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>426</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>428</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>493</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>504</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>506</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>549</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4156,80 +4156,80 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
         <v>336</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>136</v>
@@ -4237,42 +4237,42 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" t="s">
         <v>345</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -4280,305 +4280,305 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" t="s">
         <v>373</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" t="s">
         <v>376</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>357</v>
-      </c>
-      <c r="C23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4616,77 +4616,77 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" t="s">
         <v>336</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>236</v>
@@ -4694,422 +4694,422 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" t="s">
         <v>345</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>453</v>
-      </c>
-      <c r="C19" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>371</v>
-      </c>
-      <c r="C20" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
         <v>373</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="C33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="C36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="C37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>424</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>428</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5147,117 +5147,117 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" t="s">
         <v>336</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5265,382 +5265,382 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" t="s">
         <v>373</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" t="s">
         <v>376</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C22" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="C33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="C36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="C37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>424</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>428</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5672,40 +5672,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>520</v>
-      </c>
-      <c r="C2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" t="s">
         <v>524</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" t="s">
-        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -5745,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5793,7 +5793,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5881,7 +5881,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6009,7 +6009,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6025,7 +6025,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6033,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6041,7 +6041,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6065,18 +6065,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6670,8 +6670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6690,15 +6690,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -6741,7 +6741,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6781,7 +6781,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6789,7 +6789,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6829,7 +6829,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6837,7 +6837,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6850,10 +6850,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
         <v>248</v>
@@ -6861,18 +6861,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6880,7 +6880,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
         <v>249</v>
@@ -6891,7 +6891,7 @@
         <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
         <v>250</v>
@@ -6902,7 +6902,7 @@
         <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C27" t="s">
         <v>251</v>
@@ -6924,7 +6924,7 @@
         <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>253</v>
@@ -6935,7 +6935,7 @@
         <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
         <v>254</v>
@@ -6946,7 +6946,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -6968,7 +6968,7 @@
         <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -6976,20 +6976,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -7037,7 +7037,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7162,7 +7162,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>
@@ -7300,7 +7300,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="559">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -1861,375 +1861,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3324,7 +3324,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3449,7 +3449,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>456</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>330</v>
@@ -3515,7 +3515,7 @@
         <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" t="s">
         <v>334</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -3537,20 +3537,20 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>368</v>
@@ -3561,7 +3561,7 @@
         <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -3590,7 +3590,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>349</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>370</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>378</v>
@@ -3667,7 +3667,7 @@
         <v>355</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
         <v>357</v>
@@ -3993,132 +3993,132 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>497</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>500</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>503</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>505</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>548</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4133,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>352</v>
@@ -4213,7 +4213,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>466</v>
+        <v>558</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -4264,7 +4264,7 @@
         <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C14" t="s">
         <v>345</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>382</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5190,7 +5190,7 @@
         <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
         <v>334</v>
@@ -5201,7 +5201,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -5212,7 +5212,7 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5220,7 +5220,7 @@
         <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5228,7 +5228,7 @@
         <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5236,7 +5236,7 @@
         <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5265,7 +5265,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5303,10 +5303,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C20" t="s">
         <v>371</v>
@@ -5672,40 +5672,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>519</v>
-      </c>
-      <c r="C2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" t="s">
         <v>523</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C4" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -5745,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5793,7 +5793,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5881,7 +5881,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6009,7 +6009,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6025,7 +6025,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6033,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6041,7 +6041,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6690,15 +6690,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -6789,7 +6789,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6829,7 +6829,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6837,7 +6837,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6850,7 +6850,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>315</v>
@@ -6861,10 +6861,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6946,7 +6946,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -6976,20 +6976,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -7037,7 +7037,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7162,7 +7162,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="581">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2230,6 +2230,88 @@
   </si>
   <si>
     <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2594,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3071,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3432,6 +3514,22 @@
       </c>
       <c r="B34" s="1" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>539</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3448,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6671,7 +6769,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6981,7 +7079,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>551</v>
@@ -7012,10 +7110,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7288,6 +7386,78 @@
         <v>276</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>559</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>561</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>539</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>566</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>546</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>540</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>570</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>572</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7297,10 +7467,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7661,6 +7831,22 @@
         <v>297</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>546</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\dltesthttp\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dltesthttp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="593">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2205,22 +2205,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>科比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滨江东路北段4号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2312,6 +2308,49 @@
   </si>
   <si>
     <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2676,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3406,7 +3445,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3521,15 +3560,15 @@
         <v>539</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>576</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4350,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -6766,10 +6805,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6791,7 +6830,7 @@
         <v>537</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -6962,7 +7001,7 @@
         <v>535</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7044,7 +7083,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7074,12 +7113,12 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>551</v>
@@ -7090,7 +7129,7 @@
         <v>540</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -7098,7 +7137,63 @@
         <v>546</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>580</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>581</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>583</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>585</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>586</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>587</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>588</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -7388,26 +7483,26 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>562</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -7415,15 +7510,15 @@
         <v>539</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>565</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -7431,7 +7526,7 @@
         <v>546</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -7439,23 +7534,23 @@
         <v>540</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -7470,7 +7565,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7833,10 +7928,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -7844,7 +7939,7 @@
         <v>546</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="598">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1977,10 +1977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>promotionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2053,304 +2049,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>onHandInventory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
+    <t>testatproduct01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6552b86015b94e46abfe8922d0bee4c9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>goodsId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3445,7 +3464,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3557,18 +3576,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3583,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3594,9 +3613,10 @@
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -3615,7 +3635,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>490</v>
       </c>
@@ -3623,7 +3643,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -3631,23 +3651,23 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>589</v>
       </c>
       <c r="C6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>333</v>
       </c>
@@ -3658,34 +3678,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>491</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -3693,15 +3719,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>343</v>
       </c>
@@ -3709,7 +3735,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>344</v>
       </c>
@@ -3720,14 +3746,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>349</v>
@@ -3768,7 +3794,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>370</v>
@@ -3790,7 +3816,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>378</v>
@@ -4130,7 +4156,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>482</v>
@@ -4138,7 +4164,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>483</v>
@@ -4154,10 +4180,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -4165,97 +4191,97 @@
         <v>488</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>495</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>499</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>502</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>504</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4376,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -5809,40 +5835,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" t="s">
         <v>517</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5930,7 +5956,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6805,16 +6831,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="44.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -6827,15 +6854,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -6926,7 +6953,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6966,7 +6993,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6974,7 +7001,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6987,7 +7014,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>315</v>
@@ -6998,10 +7025,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7083,7 +7110,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7100,7 +7127,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -7108,92 +7135,103 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>576</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>578</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>580</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>582</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>583</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>596</v>
+      </c>
+      <c r="B45" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>581</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>583</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>585</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>586</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>587</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>588</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>589</v>
+      <c r="C45" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -7208,7 +7246,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7355,7 +7393,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>
@@ -7483,74 +7521,74 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -7928,18 +7966,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dltesthttp\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\dltesthttp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="600">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1825,27 +1825,548 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d363f638e16b44f281a4812466f5deb6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8899d2674e3d447a88e132b059b83801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d363f638e16b44f281a4812466f5deb6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1853,504 +2374,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3038,7 +3066,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3445,7 +3473,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3456,7 +3484,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
         <v>249</v>
@@ -3557,18 +3585,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3583,15 +3611,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
@@ -3617,7 +3645,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>456</v>
@@ -3638,7 +3666,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>329</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>330</v>
@@ -3652,7 +3680,7 @@
         <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
         <v>334</v>
@@ -3660,10 +3688,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -3674,20 +3702,20 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>368</v>
@@ -3698,7 +3726,7 @@
         <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -3727,7 +3755,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>349</v>
@@ -3768,7 +3796,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>370</v>
@@ -3790,7 +3818,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>378</v>
@@ -3804,7 +3832,7 @@
         <v>355</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C23" t="s">
         <v>357</v>
@@ -4064,7 +4092,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>434</v>
       </c>
@@ -4072,7 +4100,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>435</v>
       </c>
@@ -4080,7 +4108,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>441</v>
       </c>
@@ -4088,7 +4116,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>443</v>
       </c>
@@ -4096,7 +4124,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -4104,7 +4132,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>445</v>
       </c>
@@ -4112,7 +4140,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>446</v>
       </c>
@@ -4120,7 +4148,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>447</v>
       </c>
@@ -4128,134 +4156,145 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="C57" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>487</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>535</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B61" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>491</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>542</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>488</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>496</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>497</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>502</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>549</v>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>599</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4343,7 @@
         <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -4325,7 +4364,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>352</v>
@@ -4350,7 +4389,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -4361,7 +4400,7 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -4401,7 +4440,7 @@
         <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
         <v>345</v>
@@ -4433,7 +4472,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>382</v>
@@ -4444,7 +4483,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -4452,7 +4491,7 @@
         <v>369</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" t="s">
         <v>371</v>
@@ -4712,10 +4751,10 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +4769,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4807,7 +4846,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>457</v>
+        <v>585</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -4842,7 +4881,7 @@
         <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -4879,7 +4918,7 @@
         <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>365</v>
@@ -5258,10 +5297,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5295,7 +5334,7 @@
         <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5327,7 +5366,7 @@
         <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
         <v>334</v>
@@ -5338,7 +5377,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -5349,7 +5388,7 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>473</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5357,7 +5396,7 @@
         <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>477</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5365,7 +5404,7 @@
         <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>474</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5373,7 +5412,7 @@
         <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5402,7 +5441,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5410,7 +5449,7 @@
         <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>365</v>
@@ -5440,10 +5479,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C20" t="s">
         <v>371</v>
@@ -5758,7 +5797,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>445</v>
+        <v>589</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>448</v>
@@ -5778,6 +5817,46 @@
       </c>
       <c r="B55" s="1" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>521</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>536</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>535</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>540</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5809,40 +5888,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5882,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5930,7 +6009,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6018,7 +6097,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6146,7 +6225,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6162,7 +6241,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6170,7 +6249,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6178,7 +6257,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6807,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6827,15 +6906,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -6926,7 +7005,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6966,15 +7045,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>584</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6987,7 +7066,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>315</v>
@@ -6998,10 +7077,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7083,7 +7162,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7113,20 +7192,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -7134,66 +7213,66 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -7230,7 +7309,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7355,7 +7434,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>
@@ -7483,74 +7562,74 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -7928,18 +8007,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="603">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2379,6 +2379,17 @@
   </si>
   <si>
     <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,7 +3625,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6884,10 +6895,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7179,7 +7190,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -7187,7 +7198,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>262</v>
       </c>
@@ -7195,7 +7206,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>569</v>
       </c>
@@ -7203,7 +7214,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>533</v>
       </c>
@@ -7211,7 +7222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>538</v>
       </c>
@@ -7219,7 +7230,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>571</v>
       </c>
@@ -7227,7 +7238,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>572</v>
       </c>
@@ -7235,7 +7246,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>574</v>
       </c>
@@ -7243,7 +7254,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>576</v>
       </c>
@@ -7251,7 +7262,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>577</v>
       </c>
@@ -7259,7 +7270,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -7267,12 +7278,23 @@
         <v>582</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>579</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>600</v>
+      </c>
+      <c r="B45" t="s">
+        <v>601</v>
+      </c>
+      <c r="C45" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\dltesthttp\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dltesthttp\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="612">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2390,6 +2390,39 @@
   </si>
   <si>
     <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+  </si>
+  <si>
+    <t>ATzdd002@danlu.com</t>
+  </si>
+  <si>
+    <t>telStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0激活1未激活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3624,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -6895,10 +6928,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7295,6 +7328,41 @@
       </c>
       <c r="C45" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>605</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>603</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>604</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>609</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C49" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="602">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2299,97 +2299,94 @@
     <t>deliverTel</t>
   </si>
   <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isDefault</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_split_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0支持，1不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282931c1f298404aa461bad1e2d97f43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesrightCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favoriteMerchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-  </si>
-  <si>
-    <t>收藏夹收藏商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3624,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3713,7 +3710,7 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -3766,7 +3763,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>349</v>
@@ -4175,7 +4172,7 @@
         <v>477</v>
       </c>
       <c r="C57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -4297,15 +4294,15 @@
         <v>540</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +4854,7 @@
         <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -5345,7 +5342,7 @@
         <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5399,7 +5396,7 @@
         <v>337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5407,7 +5404,7 @@
         <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5415,7 +5412,7 @@
         <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5808,7 +5805,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>448</v>
@@ -5851,7 +5848,7 @@
         <v>487</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -5859,7 +5856,7 @@
         <v>535</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -5867,7 +5864,7 @@
         <v>540</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6897,8 +6894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7061,7 +7058,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>541</v>
@@ -7235,7 +7232,7 @@
         <v>571</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -7259,7 +7256,7 @@
         <v>576</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -7275,26 +7272,26 @@
         <v>578</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>580</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>598</v>
+      </c>
+      <c r="B45" t="s">
+        <v>599</v>
+      </c>
+      <c r="C45" t="s">
         <v>600</v>
-      </c>
-      <c r="B45" t="s">
-        <v>601</v>
-      </c>
-      <c r="C45" t="s">
-        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -1244,1149 +1244,1149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>testatpss01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760c708653d64be6b9c3011250c57df8</t>
+  </si>
+  <si>
+    <t>invoiceIdVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113827746481564561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011680001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongfang银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06339853dca0440dafcf743968a53b4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatproduct01</t>
+  </si>
+  <si>
+    <t>产品条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥泪大减价只要九九八只要九九八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceRetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceDanlu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁门红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testattea01MaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
+  </si>
+  <si>
+    <t>封面Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0654aa950b4345f59d1d33435dc0196a</t>
+  </si>
+  <si>
+    <t>merchStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情返回的sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportCod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款 0-支持 1-不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存标志 0-有 1-无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventoryFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶起购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷藏10度以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行标准号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB17323_2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产许可证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS411315050033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大米高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl3</t>
+  </si>
+  <si>
+    <t>albumPicUrl4</t>
+  </si>
+  <si>
+    <t>albumPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl6</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+  </si>
+  <si>
+    <t>detailPicUrl4</t>
+  </si>
+  <si>
+    <t>detailPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏 0-收藏 1-未收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d363f638e16b44f281a4812466f5deb6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>760c708653d64be6b9c3011250c57df8</t>
-  </si>
-  <si>
-    <t>invoiceIdVat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113827746481564561</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020200011680001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dongfang银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06339853dca0440dafcf743968a53b4e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatproduct01</t>
-  </si>
-  <si>
-    <t>产品条码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥泪大减价只要九九八只要九九八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceDanlu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祁门红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testattea01MaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
-  </si>
-  <si>
-    <t>封面Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0654aa950b4345f59d1d33435dc0196a</t>
-  </si>
-  <si>
-    <t>merchStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情返回的sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportCod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款 0-支持 1-不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存标志 0-有 1-无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventoryFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶起购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫升（ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷藏10度以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行标准号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB17323_2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产许可证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QS411315050033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大米高粱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酱香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl3</t>
-  </si>
-  <si>
-    <t>albumPicUrl4</t>
-  </si>
-  <si>
-    <t>albumPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl6</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-  </si>
-  <si>
-    <t>detailPicUrl4</t>
-  </si>
-  <si>
-    <t>detailPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收藏 0-收藏 1-未收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d363f638e16b44f281a4812466f5deb6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_split_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0支持，1不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282931c1f298404aa461bad1e2d97f43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesrightCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favoriteMerchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-  </si>
-  <si>
-    <t>收藏夹收藏商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2778,7 +2778,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3074,7 +3074,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3098,18 +3098,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -3230,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3481,7 +3481,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3492,7 +3492,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C25" t="s">
         <v>249</v>
@@ -3588,23 +3588,23 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>308</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>566</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3621,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3645,664 +3645,664 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>330</v>
-      </c>
-      <c r="C6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
         <v>333</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
         <v>344</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
         <v>452</v>
-      </c>
-      <c r="C19" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" t="s">
         <v>370</v>
-      </c>
-      <c r="C20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" t="s">
         <v>372</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>405</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="C34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="C35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>411</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>413</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="C39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="C40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="C41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="C42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>425</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>427</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="C45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>486</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>491</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>494</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>497</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>499</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -4340,80 +4340,80 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
         <v>333</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" t="s">
         <v>335</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>136</v>
@@ -4421,42 +4421,42 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" t="s">
         <v>344</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -4464,305 +4464,305 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" t="s">
         <v>372</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" t="s">
         <v>375</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>356</v>
-      </c>
-      <c r="C23" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4800,77 +4800,77 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>330</v>
-      </c>
-      <c r="C6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
         <v>333</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8" t="s">
         <v>335</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>236</v>
@@ -4878,422 +4878,422 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
         <v>344</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>452</v>
-      </c>
-      <c r="C19" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>370</v>
-      </c>
-      <c r="C20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" t="s">
         <v>372</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="C32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="C33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="C34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>413</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="C37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="C38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="C39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="C40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>423</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>425</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="C43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="C44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5331,117 +5331,117 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>330</v>
-      </c>
-      <c r="C6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" t="s">
         <v>333</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" t="s">
         <v>335</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5449,422 +5449,422 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" t="s">
         <v>372</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" t="s">
         <v>375</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="C32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="C33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>413</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="C37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="C38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="C39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="C40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>423</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>425</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="C43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="C44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -5896,40 +5896,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>513</v>
-      </c>
-      <c r="C2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" t="s">
         <v>517</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C4" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5969,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6017,7 +6017,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6105,7 +6105,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6233,7 +6233,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6249,7 +6249,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6257,7 +6257,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6265,7 +6265,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6289,18 +6289,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6894,8 +6894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6914,15 +6914,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -6965,7 +6965,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -7005,7 +7005,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -7013,7 +7013,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7053,15 +7053,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7074,10 +7074,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
         <v>248</v>
@@ -7085,18 +7085,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -7104,7 +7104,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
         <v>249</v>
@@ -7115,7 +7115,7 @@
         <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
         <v>250</v>
@@ -7126,7 +7126,7 @@
         <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
         <v>251</v>
@@ -7148,7 +7148,7 @@
         <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>253</v>
@@ -7159,7 +7159,7 @@
         <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
         <v>254</v>
@@ -7170,7 +7170,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7192,7 +7192,7 @@
         <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -7200,20 +7200,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -7221,77 +7221,77 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>573</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>597</v>
+      </c>
+      <c r="B45" t="s">
         <v>598</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>599</v>
-      </c>
-      <c r="C45" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -7328,7 +7328,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7453,7 +7453,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>
@@ -7581,74 +7581,74 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>548</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>550</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>552</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>555</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>561</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -8026,18 +8026,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="604">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2089,304 +2089,312 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDefault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_split_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0支持，1不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282931c1f298404aa461bad1e2d97f43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesrightCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favoriteMerchId</t>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>109ac50b14a7404a886d8d9912f6eae7</t>
-  </si>
-  <si>
-    <t>收藏夹收藏商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3230,7 +3238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3481,7 +3489,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3588,23 +3596,23 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>565</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -3621,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3696,10 +3704,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -3710,7 +3718,7 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -3718,7 +3726,7 @@
         <v>485</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -3734,7 +3742,7 @@
         <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -3763,7 +3771,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>348</v>
@@ -3900,7 +3908,7 @@
         <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>399</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -3908,7 +3916,7 @@
         <v>395</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>398</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -4172,12 +4180,12 @@
         <v>476</v>
       </c>
       <c r="C57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>477</v>
@@ -4193,10 +4201,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -4291,18 +4299,18 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -4397,7 +4405,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -4854,7 +4862,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -5342,7 +5350,7 @@
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5396,7 +5404,7 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5404,7 +5412,7 @@
         <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5412,7 +5420,7 @@
         <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5805,7 +5813,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>447</v>
@@ -5837,7 +5845,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>388</v>
@@ -5848,23 +5856,23 @@
         <v>486</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -6914,15 +6922,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -7013,7 +7021,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7053,15 +7061,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7074,7 +7082,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>314</v>
@@ -7085,10 +7093,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7170,7 +7178,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7200,20 +7208,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -7221,63 +7229,63 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>570</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>572</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>362</v>
@@ -7285,13 +7293,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>596</v>
+      </c>
+      <c r="B45" t="s">
         <v>597</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>598</v>
-      </c>
-      <c r="C45" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -7581,74 +7589,74 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>551</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>558</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>560</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8026,18 +8034,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="625">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1933,468 +1933,552 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRecommended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于丹露价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，单价减[￥1.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，总价减[￥6.66]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_split_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0支持，1不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282931c1f298404aa461bad1e2d97f43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesrightCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favoriteMerchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-  </si>
-  <si>
-    <t>收藏夹收藏商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1袋</t>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于minSaleNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3489,7 +3573,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3596,23 +3680,23 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -3627,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3661,7 +3745,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>620</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>455</v>
@@ -3704,10 +3788,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -3718,15 +3802,15 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -3739,15 +3823,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>619</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>602</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>341</v>
@@ -3768,16 +3852,19 @@
       <c r="A15" t="s">
         <v>346</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>361</v>
       </c>
@@ -3788,7 +3875,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>363</v>
       </c>
@@ -3799,7 +3886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -3810,9 +3897,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>369</v>
@@ -3821,7 +3908,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -3832,9 +3919,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>374</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>377</v>
@@ -3843,18 +3930,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>623</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>386</v>
       </c>
@@ -3865,9 +3952,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>621</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>388</v>
@@ -3875,8 +3962,11 @@
       <c r="C25" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>387</v>
       </c>
@@ -3886,8 +3976,11 @@
       <c r="C26" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -3895,7 +3988,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>394</v>
       </c>
@@ -3903,23 +3996,23 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>395</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>454</v>
       </c>
@@ -3930,7 +4023,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>401</v>
       </c>
@@ -4174,18 +4267,18 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C57" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>477</v>
@@ -4193,18 +4286,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>485</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -4212,66 +4305,66 @@
         <v>482</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>490</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>492</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>499</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>493</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>501</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="B66" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>500</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>502</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="B68" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>497</v>
       </c>
@@ -4279,38 +4372,95 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>499</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>594</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>599</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>604</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>605</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>606</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>607</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>608</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>609</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4475,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4405,7 +4555,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -4445,7 +4595,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>601</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>353</v>
@@ -4862,7 +5012,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -5316,7 +5466,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5350,7 +5500,7 @@
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5404,7 +5554,7 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5412,7 +5562,7 @@
         <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5420,7 +5570,7 @@
         <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5813,7 +5963,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>447</v>
@@ -5837,7 +5987,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>388</v>
@@ -5845,7 +5995,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>388</v>
@@ -5853,26 +6003,26 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -5904,40 +6054,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -6025,7 +6175,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6922,15 +7072,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -7021,7 +7171,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7061,15 +7211,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7082,7 +7232,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>314</v>
@@ -7093,10 +7243,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7178,7 +7328,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7208,20 +7358,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -7229,63 +7379,63 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>362</v>
@@ -7293,13 +7443,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B45" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C45" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -7313,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7344,7 +7494,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -7461,7 +7611,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>
@@ -7589,74 +7739,74 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8034,18 +8184,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="629">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2378,67 +2378,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于丹露价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，单价减[￥1.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，总价减[￥6.66]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于minSaleNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isPromotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现等同于丹露价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
+    <t>isPromotionCart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2446,39 +2490,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每满[3]瓶，单价减[￥1.01]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[3]瓶，总价减[￥6.66]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现等同于minSaleNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
+    <t xml:space="preserve"> 0-促销 1-不是促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车中与上相反，1-促销 0-不是促销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3711,10 +3727,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3745,7 +3761,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>455</v>
@@ -3823,7 +3839,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>520</v>
@@ -3831,7 +3847,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>341</v>
@@ -3853,12 +3869,12 @@
         <v>346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>348</v>
@@ -3932,7 +3948,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>487</v>
@@ -3954,7 +3970,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>388</v>
@@ -3963,7 +3979,7 @@
         <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -3977,7 +3993,7 @@
         <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4403,64 +4419,78 @@
         <v>598</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>624</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>600</v>
+      <c r="C75" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>610</v>
+        <v>626</v>
+      </c>
+      <c r="C76" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>609</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>611</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>608</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -4595,7 +4625,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>353</v>
@@ -7463,7 +7493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -7494,7 +7524,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="647">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2495,6 +2495,74 @@
   </si>
   <si>
     <t>购物车中与上相反，1-促销 0-不是促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>ATzdd001@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATzdd002@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3729,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7080,10 +7148,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7482,6 +7550,47 @@
         <v>592</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>629</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C46" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>632</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C47" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>635</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C48" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>638</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7491,10 +7600,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7783,7 +7892,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>546</v>
       </c>
@@ -7791,7 +7900,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>526</v>
       </c>
@@ -7799,7 +7908,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>549</v>
       </c>
@@ -7807,7 +7916,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>531</v>
       </c>
@@ -7815,7 +7924,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>527</v>
       </c>
@@ -7823,7 +7932,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>553</v>
       </c>
@@ -7831,12 +7940,53 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>555</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>644</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C40" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>645</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>646</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>637</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="675">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1439,18 +1439,1215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情返回的sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportCod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款 0-支持 1-不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存标志 0-有 1-无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventoryFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶起购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷藏10度以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行标准号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB17323_2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产许可证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS411315050033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大米高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl3</t>
+  </si>
+  <si>
+    <t>albumPicUrl4</t>
+  </si>
+  <si>
+    <t>albumPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl6</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+  </si>
+  <si>
+    <t>detailPicUrl4</t>
+  </si>
+  <si>
+    <t>detailPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏 0-收藏 1-未收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d363f638e16b44f281a4812466f5deb6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRecommended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于丹露价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，单价减[￥1.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，总价减[￥6.66]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于minSaleNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotionCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-促销 1-不是促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车中与上相反，1-促销 0-不是促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>ATzdd001@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATzdd002@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitsConvertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatproduct01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量（新的组合）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量（老）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>01188d25f93b4c65ac324c25ae9a31bc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>brandId</t>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0654aa950b4345f59d1d33435dc0196a</t>
-  </si>
-  <si>
-    <t>merchStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0654aa950b4345f59d1d33435dc0196a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP032C342D2995（香港）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-推荐 1-不推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1458,1111 +2655,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情返回的sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportCod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款 0-支持 1-不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存标志 0-有 1-无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventoryFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶起购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫升（ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷藏10度以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行标准号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB17323_2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产许可证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QS411315050033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大米高粱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酱香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl3</t>
-  </si>
-  <si>
-    <t>albumPicUrl4</t>
-  </si>
-  <si>
-    <t>albumPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl6</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-  </si>
-  <si>
-    <t>detailPicUrl4</t>
-  </si>
-  <si>
-    <t>detailPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收藏 0-收藏 1-未收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d363f638e16b44f281a4812466f5deb6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_split_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0支持，1不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282931c1f298404aa461bad1e2d97f43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesrightCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favoriteMerchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-  </si>
-  <si>
-    <t>收藏夹收藏商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRecommended</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现等同于丹露价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[3]瓶，单价减[￥1.01]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[3]瓶，总价减[￥6.66]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现等同于minSaleNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotionCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-促销 1-不是促销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车中与上相反，1-促销 0-不是促销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPosition</t>
-  </si>
-  <si>
-    <t>终端店销售员</t>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userEmail</t>
-  </si>
-  <si>
-    <t>ATzdd001@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telStatus</t>
-  </si>
-  <si>
-    <t>手机号激活状态，0已激活，1未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店销售员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATzdd002@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号激活状态，0已激活，1未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telStatus</t>
+    <t>orderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20466368980007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20455636030045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3250,7 +3363,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3657,7 +3770,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C24" t="s">
         <v>248</v>
@@ -3668,7 +3781,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C25" t="s">
         <v>249</v>
@@ -3764,23 +3877,23 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -3795,10 +3908,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3829,15 +3942,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>673</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>327</v>
@@ -3845,7 +3958,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3872,10 +3988,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>674</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -3886,36 +4002,36 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>587</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>341</v>
@@ -3937,12 +4053,12 @@
         <v>346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>348</v>
@@ -3950,76 +4066,76 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" t="s">
         <v>362</v>
-      </c>
-      <c r="C17" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" t="s">
         <v>363</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C20" t="s">
         <v>368</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>487</v>
+        <v>633</v>
       </c>
       <c r="C23" t="s">
         <v>356</v>
@@ -4027,417 +4143,423 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D26" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>402</v>
+        <v>642</v>
       </c>
       <c r="C32" t="s">
-        <v>401</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>646</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>412</v>
+        <v>644</v>
       </c>
       <c r="C37" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>413</v>
+        <v>648</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C38" t="s">
-        <v>413</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
+      </c>
+      <c r="C46" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
+      </c>
+      <c r="C47" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>432</v>
+        <v>640</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>436</v>
+        <v>641</v>
+      </c>
+      <c r="C48" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C57" t="s">
-        <v>586</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>521</v>
+        <v>473</v>
+      </c>
+      <c r="C60" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -4445,120 +4567,155 @@
         <v>495</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>501</v>
+        <v>496</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>518</v>
+        <v>491</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>585</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>589</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>588</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>598</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>614</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C75" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C76" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>609</v>
+        <v>360</v>
+      </c>
+      <c r="C77" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>587</v>
+      </c>
+      <c r="C78" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
+      </c>
+      <c r="C79" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+        <v>603</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>615</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>594</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>595</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>596</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>635</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -4570,16 +4727,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="60.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4607,7 +4764,7 @@
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -4620,15 +4777,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>351</v>
@@ -4642,7 +4802,7 @@
         <v>332</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>358</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
         <v>333</v>
@@ -4653,7 +4813,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>541</v>
+        <v>650</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -4664,12 +4824,12 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>136</v>
@@ -4693,7 +4853,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>353</v>
@@ -4704,7 +4864,7 @@
         <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C14" t="s">
         <v>344</v>
@@ -4720,67 +4880,70 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>379</v>
+        <v>652</v>
+      </c>
+      <c r="C16" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" t="s">
         <v>368</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C20" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -4796,229 +4959,259 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C35" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C42" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>635</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>586</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C59" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>610</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C60" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5226,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5067,7 +5260,7 @@
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5080,7 +5273,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5110,7 +5303,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -5137,7 +5330,7 @@
         <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5145,7 +5338,7 @@
         <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5179,68 +5372,68 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" t="s">
         <v>363</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" t="s">
         <v>368</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5253,303 +5446,303 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +5757,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5598,7 +5791,7 @@
         <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5611,7 +5804,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5630,7 +5823,7 @@
         <v>332</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>333</v>
@@ -5641,7 +5834,7 @@
         <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
         <v>335</v>
@@ -5652,7 +5845,7 @@
         <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5660,7 +5853,7 @@
         <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5668,7 +5861,7 @@
         <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5676,7 +5869,7 @@
         <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5702,76 +5895,76 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>634</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" t="s">
         <v>363</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5784,343 +5977,343 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -6134,7 +6327,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6152,40 +6345,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6273,7 +6466,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6361,7 +6554,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6489,7 +6682,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6505,7 +6698,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6513,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6521,7 +6714,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -7148,10 +7341,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7170,15 +7363,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>537</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -7269,7 +7462,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7309,15 +7502,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>532</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7327,10 +7520,13 @@
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C21" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>314</v>
@@ -7341,10 +7537,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7426,7 +7622,7 @@
         <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -7456,20 +7652,20 @@
         <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -7477,118 +7673,126 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B45" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C45" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C46" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="C47" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C48" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>669</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -7600,10 +7804,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7625,7 +7829,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7633,7 +7837,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -7673,7 +7877,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -7742,7 +7946,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>663</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>278</v>
@@ -7750,7 +7954,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>662</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>279</v>
@@ -7758,10 +7962,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>664</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>661</v>
+      </c>
+      <c r="C19" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -7878,93 +8085,93 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="C40" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -7972,21 +8179,29 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C42" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>671</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -8364,18 +8579,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -3910,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7343,8 +7343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="688">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,10 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18500000201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,10 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18500000301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,10 +873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18500000601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,1470 +1200,1535 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>21138277464856467890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162220202000116800001234567890123456789012345678901622202020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省东海省东海省东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760c708653d64be6b9c3011250c57df8</t>
+  </si>
+  <si>
+    <t>invoiceIdVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113827746481564561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011680001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongfang银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06339853dca0440dafcf743968a53b4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatproduct01</t>
+  </si>
+  <si>
+    <t>产品条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥泪大减价只要九九八只要九九八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceRetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceDanlu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁门红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testattea01MaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
+  </si>
+  <si>
+    <t>封面Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情返回的sellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportCod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款 0-支持 1-不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHandInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存标志 0-有 1-无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventoryFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶起购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullReductionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullPresentationList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷藏10度以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行标准号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB17323_2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产许可证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QS411315050033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大米高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱香型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl3</t>
+  </si>
+  <si>
+    <t>albumPicUrl4</t>
+  </si>
+  <si>
+    <t>albumPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albumPicUrl6</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+  </si>
+  <si>
+    <t>detailPicUrl4</t>
+  </si>
+  <si>
+    <t>detailPicUrl5</t>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏 0-收藏 1-未收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d363f638e16b44f281a4812466f5deb6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFavorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尼尼奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatpss02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e84b827247248e585811933d06550e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14b64672132c487e805f3a04f10e2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2de3187cd646acb377bc731174065b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01 配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送商2商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_store_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefaultPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentationDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>398d31a2779b43d9a42efa62e47ce189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满3瓶，总价减6.66元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreementUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.danlu.com/registerNew/agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册协议URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包最高支付比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTicketUseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵最大使用张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymentFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopcartSellerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportVatInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346b22f8e2624ac41a8ea9967816fe95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+  </si>
+  <si>
+    <t>yuxixi</t>
+  </si>
+  <si>
+    <t>18349200237</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希喻希喻希喻希希喻希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+  </si>
+  <si>
+    <t>CHNP035</t>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>deliverTel</t>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8899d2674e3d447a88e132b059b83801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_split_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailPicUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9882df7731dd472eae08d0b09e3335f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化产品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_split_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0支持，1不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282931c1f298404aa461bad1e2d97f43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesrightCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRecommended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagandaInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于丹露价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionList6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，单价减[￥1.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每满[3]瓶，总价减[￥6.66]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleQuantityS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现等同于minSaleNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotionCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-促销 1-不是促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车中与上相反，1-促销 0-不是促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>ATzdd001@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATzdd002@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitsConvertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109ac50b14a7404a886d8d9912f6eae7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatproduct01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500毫升（ml）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量（新的组合）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量（老）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13c139794d8b441bae348fbc3bde7594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0654aa950b4345f59d1d33435dc0196a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0654aa950b4345f59d1d33435dc0196a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP032C342D2995（香港）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-推荐 1-不推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20466368980007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20455636030045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zddActForceInd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-强制激活 1-非强制激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actCouponAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活送红包金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstActiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-19 09:16:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次激活时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxsActForceInd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testatzddmaxmaxmaxmaxmaxmaxmax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21138277464856467890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行中国开户银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162220202000116800001234567890123456789012345678901622202020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔奥尼尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省东海省东海省东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>760c708653d64be6b9c3011250c57df8</t>
-  </si>
-  <si>
-    <t>invoiceIdVat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00b5efab7ba04fa7a0d5d4146506dcd0</t>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化烟酒专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113827746481564561</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6222020200011680001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dongfang银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06339853dca0440dafcf743968a53b4e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatproduct01</t>
-  </si>
-  <si>
-    <t>产品条码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥泪大减价只要九九八只要九九八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceDanlu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祁门红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testattea01MaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业促销只要998MaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/6/29/117eeecd4822ffdaa01506d903a9a1c9.jpg@1e_300w_300h_1c_80q.jpg"</t>
-  </si>
-  <si>
-    <t>封面Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchStatus</t>
+    <t>2016-05-19 09:16:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-19 09:16:47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品状态 0 正常 1 暂时缺货 2 已下架 3 已失效 4 商品不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情返回的sellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportCod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款 0-支持 1-不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onHandInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存标志 0-有 1-无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventoryFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶起购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 16:54:50 前，每满3瓶，总价减6.66元或者单价减1.01元，总价减16.66元封顶或者单价减2.98元封顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 11:54:01 前，满20.00元，总价减5.00元或者单价减1.00元；满50.00元，总价减10.00元或者单价减2.00元；满100.00元，总价减20.00元或者单价减3.00元；满500.00元，总价减100.00元或者单价减10.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullReductionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullPresentationList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa *1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品 *1，最多赠送数量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫升（ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷藏10度以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行标准号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB17323_2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产许可证编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QS411315050033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大米高粱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酱香型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl3</t>
-  </si>
-  <si>
-    <t>albumPicUrl4</t>
-  </si>
-  <si>
-    <t>albumPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/a416ad6fd56330ed19e598142c35c78e.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/6cbdf3bc9de641f44c971cb99e4bff07.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/acce55bbdf0f849ee09c2fac5d7d6d4d.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/4b9fb23dba904382180c1b8ff6a7ffbc.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/f3d203566817830ec7009a294a0e0e4a.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>albumPicUrl6</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-  </si>
-  <si>
-    <t>detailPicUrl4</t>
-  </si>
-  <si>
-    <t>detailPicUrl5</t>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/9f4a2294684dba19730752dbf94652cb.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/1919e3c49b929a86a597696820b33de9.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/2a092e7cf7b18cccdbf288ba769206e0.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收藏 0-收藏 1-未收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d363f638e16b44f281a4812466f5deb6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFavorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆尼尼奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatpss02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e84b827247248e585811933d06550e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14b64672132c487e805f3a04f10e2443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee2de3187cd646acb377bc731174065b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01 配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送商2商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seller_store_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBarCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reductionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d9fdc326ed1b4d4da973afcdc42b451a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefaultPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentationDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>398d31a2779b43d9a42efa62e47ce189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满3瓶，总价减6.66元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreementUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.danlu.com/registerNew/agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册协议URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包最高支付比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxTicketUseNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵最大使用张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isYijipayAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767_split_测试自动化配送商01的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoiceHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopcartSellerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supportVatInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346b22f8e2624ac41a8ea9967816fe95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路北段4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyz123456790一二三四五六七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161616</t>
-  </si>
-  <si>
-    <t>yuxixi</t>
-  </si>
-  <si>
-    <t>18349200237</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货我的收货地址好长收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希喻希喻希喻希希喻希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>areaProvinceCode</t>
-  </si>
-  <si>
-    <t>CHNP035</t>
-  </si>
-  <si>
-    <t>areaCityCode</t>
-  </si>
-  <si>
-    <t>CHNP035C345</t>
-  </si>
-  <si>
-    <t>areaDistrictCode</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>deliverTel</t>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028-88547896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8899d2674e3d447a88e132b059b83801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_split_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailPicUrl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9882df7731dd472eae08d0b09e3335f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化产品01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>568ea05056e9420fb20b9f5b128fefc6_split_9882df7731dd472eae08d0b09e3335f2_split_测试自动化配送商02的店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_split_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0支持，1不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282931c1f298404aa461bad1e2d97f43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesrightCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>favoriteMerchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-  </si>
-  <si>
-    <t>收藏夹收藏商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江东路南段4号abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzab1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:06:15 前，每满2瓶，赠本品1瓶，最多赠送3瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRecommended</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagandaInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现等同于丹露价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promotionList6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥20]，总价减[￥5];满[￥50]，总价减[￥10];满[￥100]，总价减[￥20];满[￥500]，总价减[￥100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[2]瓶，赠送[本品]×[1]瓶，最多赠送[3]瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[3]瓶，单价减[￥1.01]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每满[3]瓶，总价减[￥6.66]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥20]，单价减[￥1];满[￥50]，单价减[￥2];满[￥100]，单价减[￥3];满[￥500]，单价减[￥10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleQuantityS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现等同于minSaleNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Danlu99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPromotionCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-促销 1-不是促销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车中与上相反，1-促销 0-不是促销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPosition</t>
-  </si>
-  <si>
-    <t>终端店销售员</t>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userEmail</t>
-  </si>
-  <si>
-    <t>ATzdd001@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telStatus</t>
-  </si>
-  <si>
-    <t>手机号激活状态，0已激活，1未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端店销售员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATzdd002@danlu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号激活状态，0已激活，1未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asset.danlu.com/upload/goods/2016/7/1/5629d9171a5489cb11e24057dab469d2.jpg@1e_300w_300h_1c_80q.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitsConvertion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109ac50b14a7404a886d8d9912f6eae7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满[￥10]，赠送[测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa]×[1]件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品条码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatproduct01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500毫升（ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量（新的组合）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-31 15:13:14 前，满10.00元，赠测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa1件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净含量（老）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13c139794d8b441bae348fbc3bde7594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01188d25f93b4c65ac324c25ae9a31bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0654aa950b4345f59d1d33435dc0196a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0654aa950b4345f59d1d33435dc0196a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试自动化红茶01MaMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMaxMax 扩展名MaxMaxMaxMaxMaxMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802412e1f4d54f6a858757545394dca1_split_e14282a6909acfcb4c33f1d30ea2a767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fb850120da449ef98a2c7e641100e02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testatzdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP035C345D2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHNP032C342D2995（香港）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-推荐 1-不推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20466368980007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20455636030045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3038,10 +3091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3067,7 +3120,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3088,7 +3141,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>127</v>
@@ -3096,10 +3149,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -3112,7 +3165,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>136</v>
@@ -3123,7 +3176,7 @@
         <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -3131,7 +3184,7 @@
         <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -3139,7 +3192,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -3147,7 +3200,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -3203,7 +3256,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3363,7 +3416,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3376,133 +3429,152 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>671</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3517,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3546,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>684</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -3557,7 +3629,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -3587,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -3664,7 +3736,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
@@ -3675,7 +3747,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
@@ -3767,133 +3839,155 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>671</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>679</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C38" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3934,72 +4028,72 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>126</v>
@@ -4007,715 +4101,715 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" t="s">
         <v>384</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C26" t="s">
-        <v>388</v>
-      </c>
       <c r="D26" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C32" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C33" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C37" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C39" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C40" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C43" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C48" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>425</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>426</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>427</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C60" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C77" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C78" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C79" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>591</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -4753,83 +4847,83 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>136</v>
@@ -4837,42 +4931,42 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -4880,338 +4974,338 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C16" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
         <v>384</v>
-      </c>
-      <c r="C26" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C37" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C42" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C45" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C59" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C60" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -5249,500 +5343,500 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
         <v>384</v>
-      </c>
-      <c r="C26" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>424</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5780,540 +5874,540 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
         <v>384</v>
-      </c>
-      <c r="C26" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>424</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -6324,10 +6418,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6345,40 +6439,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C4" t="s">
-        <v>509</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6389,10 +6516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6418,7 +6545,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6450,7 +6577,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6466,7 +6593,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6474,7 +6601,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6498,7 +6625,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6554,7 +6681,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6682,7 +6809,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6698,7 +6825,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6706,7 +6833,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6714,7 +6841,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6727,133 +6854,152 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>671</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -6868,10 +7014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6880,7 +7026,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -6888,15 +7034,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -6904,7 +7050,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -6912,39 +7058,39 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -6952,15 +7098,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -6968,12 +7114,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -6987,10 +7153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6999,71 +7165,71 @@
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -7071,15 +7237,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -7087,12 +7253,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7106,10 +7291,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7118,71 +7303,71 @@
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -7190,15 +7375,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -7206,12 +7391,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7222,10 +7426,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7234,71 +7438,71 @@
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -7306,15 +7510,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -7322,12 +7526,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7341,10 +7564,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7363,15 +7586,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -7395,7 +7618,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>670</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -7414,7 +7637,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -7454,7 +7677,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -7462,7 +7685,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7502,15 +7725,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7521,151 +7744,151 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -7673,126 +7896,137 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B45" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C46" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C47" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C48" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>680</v>
+      </c>
+      <c r="C49" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>670</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>663</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -7804,10 +8038,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7829,7 +8063,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7837,7 +8071,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -7869,7 +8103,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -7877,7 +8111,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -7885,7 +8119,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -7893,7 +8127,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -7917,7 +8151,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -7925,7 +8159,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -7941,237 +8175,237 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C19" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C40" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -8179,29 +8413,37 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C42" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>623</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>629</v>
+        <v>679</v>
+      </c>
+      <c r="C43" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>672</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>665</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -8213,10 +8455,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8305,7 +8547,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -8424,7 +8666,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
@@ -8467,130 +8709,152 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>671</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C37" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>679</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C38" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="694">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2729,6 +2729,30 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigCouponFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-大额红包不校验 1-大额红包短信验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额红包验证金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6418,10 +6442,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6506,6 +6530,28 @@
       </c>
       <c r="C7" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>690</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -8457,8 +8503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="TmlShop2" sheetId="11" r:id="rId8"/>
     <sheet name="TmlShopMin" sheetId="3" r:id="rId9"/>
     <sheet name="TmlShopMax" sheetId="4" r:id="rId10"/>
-    <sheet name="Merch1" sheetId="12" r:id="rId11"/>
-    <sheet name="Merch2" sheetId="13" r:id="rId12"/>
-    <sheet name="Merch3" sheetId="14" r:id="rId13"/>
-    <sheet name="Merch4" sheetId="16" r:id="rId14"/>
-    <sheet name="Param" sheetId="17" r:id="rId15"/>
+    <sheet name="RegistTmlShop" sheetId="18" r:id="rId11"/>
+    <sheet name="Merch1" sheetId="12" r:id="rId12"/>
+    <sheet name="Merch2" sheetId="13" r:id="rId13"/>
+    <sheet name="Merch3" sheetId="14" r:id="rId14"/>
+    <sheet name="Merch4" sheetId="16" r:id="rId15"/>
+    <sheet name="Param" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="781">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2753,6 +2754,353 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testatzddRegist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danlu99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATzdd006@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeTypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localProvince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localCountry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localStreet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430302198406249000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busLicenseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>503190001016001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化烟酒专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通发票抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58967733ea24c51b2a3dc3f2ffc91f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceIdVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06339853dca0440dafcf743968a53b4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试自动化配送商01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值税企业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxpayerRegistrationNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113827746481564561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省钓鱼岛赤尾屿滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depositBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongfang银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6222020200011680001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收票人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManProvince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveManAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江东路北段4号404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78a24c0cf1c2489ca07d97ddbb46e0a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaProvinceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDistrictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNP035C345D2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028-88547896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址是否默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favoriteMerchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏夹收藏商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATzdd006@danlu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telStatus</t>
+  </si>
+  <si>
+    <t>手机号激活状态，0已激活，1未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（待审批账号：testsun456789 密码：123456 手机号：18349200236）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2818,7 +3166,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2833,6 +3181,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3115,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3599,6 +3950,14 @@
       </c>
       <c r="C55" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>694</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3975,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4025,6 +4384,482 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>719</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C23" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>724</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>726</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>728</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>731</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C27" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>734</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>737</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C29" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>740</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C30" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>743</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C32" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>749</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C33" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>750</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>752</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>754</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>756</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>551</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>760</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>762</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>764</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>557</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>768</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C45" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>771</v>
+      </c>
+      <c r="B46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>610</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C47" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>613</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C48" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>776</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C49" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>778</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A52:B52"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B48" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
@@ -4843,7 +5678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
@@ -5339,7 +6174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
@@ -5870,7 +6705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
@@ -6440,12 +7275,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testdata/userdata.xlsx
+++ b/testdata/userdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DealMager" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="785">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1907,10 +1907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sellerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>storeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3101,6 +3097,26 @@
   </si>
   <si>
     <t>（待审批账号：testsun456789 密码：123456 手机号：18349200236）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isYijipayAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceRetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fb850120da449ef98a2c7e641100e02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3469,7 +3485,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3540,7 +3556,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>136</v>
@@ -3935,29 +3951,29 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
+        <v>693</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4001,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -4225,7 +4241,7 @@
         <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C24" t="s">
         <v>245</v>
@@ -4332,45 +4348,45 @@
         <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>546</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -4387,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4408,42 +4424,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4451,20 +4467,20 @@
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -4472,15 +4488,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -4488,7 +4504,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
@@ -4496,7 +4512,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -4504,10 +4520,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -4515,7 +4531,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -4523,7 +4539,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -4531,15 +4547,15 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>718</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -4552,10 +4568,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -4563,7 +4579,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -4579,270 +4595,270 @@
         <v>268</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C23" t="s">
         <v>722</v>
-      </c>
-      <c r="C23" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>723</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>725</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>727</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>729</v>
-      </c>
-      <c r="C26" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>730</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>732</v>
-      </c>
-      <c r="C27" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>733</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>735</v>
-      </c>
-      <c r="C28" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>736</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>738</v>
-      </c>
-      <c r="C29" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>739</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>741</v>
-      </c>
-      <c r="C30" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>744</v>
-      </c>
-      <c r="C31" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>745</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" t="s">
         <v>747</v>
-      </c>
-      <c r="C32" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>749</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>751</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>756</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>759</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>761</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>763</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>767</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
         <v>769</v>
-      </c>
-      <c r="C45" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>770</v>
+      </c>
+      <c r="B46" t="s">
+        <v>575</v>
+      </c>
+      <c r="C46" t="s">
         <v>771</v>
-      </c>
-      <c r="B46" t="s">
-        <v>576</v>
-      </c>
-      <c r="C46" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>609</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="C47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C48" t="s">
         <v>774</v>
-      </c>
-      <c r="C48" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>775</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C49" t="s">
         <v>776</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C49" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>777</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B52" s="5"/>
     </row>
@@ -4863,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4895,7 +4911,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>448</v>
@@ -4903,7 +4919,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>323</v>
@@ -4914,7 +4930,7 @@
         <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -4941,10 +4957,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C8" t="s">
         <v>331</v>
@@ -4960,10 +4976,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -4976,15 +4992,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>337</v>
@@ -4992,7 +5008,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>782</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>341</v>
@@ -5006,12 +5022,12 @@
         <v>342</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>344</v>
@@ -5055,7 +5071,7 @@
         <v>362</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C20" t="s">
         <v>364</v>
@@ -5085,10 +5101,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C23" t="s">
         <v>352</v>
@@ -5107,7 +5123,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>381</v>
@@ -5116,7 +5132,7 @@
         <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5130,7 +5146,7 @@
         <v>384</v>
       </c>
       <c r="D26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5154,7 +5170,7 @@
         <v>390</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5162,7 +5178,7 @@
         <v>388</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5181,21 +5197,21 @@
         <v>394</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C32" t="s">
         <v>636</v>
-      </c>
-      <c r="C32" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5222,7 +5238,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>400</v>
+        <v>781</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>401</v>
@@ -5236,7 +5252,7 @@
         <v>402</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C37" t="s">
         <v>402</v>
@@ -5244,10 +5260,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>641</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5351,13 +5367,13 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>633</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="C48" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5450,18 +5466,18 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>508</v>
+        <v>780</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>470</v>
@@ -5469,18 +5485,18 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>477</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5488,187 +5504,187 @@
         <v>475</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>481</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>484</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>486</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C78" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>605</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="C79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -5733,10 +5749,10 @@
         <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" t="s">
         <v>647</v>
-      </c>
-      <c r="C5" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5755,7 +5771,7 @@
         <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C7" t="s">
         <v>329</v>
@@ -5766,7 +5782,7 @@
         <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C8" t="s">
         <v>331</v>
@@ -5806,7 +5822,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>349</v>
@@ -5833,10 +5849,10 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6139,32 +6155,32 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>628</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C60" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -6256,7 +6272,7 @@
         <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C8" t="s">
         <v>331</v>
@@ -6744,7 +6760,7 @@
         <v>321</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6798,7 +6814,7 @@
         <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6806,7 +6822,7 @@
         <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6814,7 +6830,7 @@
         <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6848,7 +6864,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>465</v>
@@ -7207,7 +7223,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>440</v>
@@ -7231,7 +7247,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>381</v>
@@ -7239,7 +7255,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>381</v>
@@ -7247,26 +7263,26 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -7298,95 +7314,95 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" t="s">
         <v>504</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="C5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" t="s">
         <v>674</v>
-      </c>
-      <c r="C6" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>677</v>
-      </c>
-      <c r="C7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" t="s">
         <v>688</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C8" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>691</v>
-      </c>
-      <c r="C9" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -7399,8 +7415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7474,7 +7490,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -7866,21 +7882,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -7898,7 +7914,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8005,22 +8021,22 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -8144,21 +8160,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -8226,7 +8242,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>215</v>
@@ -8282,21 +8298,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -8417,21 +8433,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -8447,8 +8463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8467,15 +8483,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -8499,7 +8515,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -8566,7 +8582,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -8603,18 +8619,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>784</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>652</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -8625,12 +8641,12 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>310</v>
@@ -8641,10 +8657,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -8726,7 +8742,7 @@
         <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C31" t="s">
         <v>252</v>
@@ -8756,20 +8772,20 @@
         <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -8777,63 +8793,63 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>551</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>553</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>356</v>
@@ -8841,73 +8857,73 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>574</v>
+      </c>
+      <c r="B45" t="s">
         <v>575</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>576</v>
-      </c>
-      <c r="C45" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>609</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
         <v>611</v>
-      </c>
-      <c r="C46" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
         <v>614</v>
-      </c>
-      <c r="C47" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>678</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
         <v>680</v>
-      </c>
-      <c r="C49" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>617</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>662</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -8952,7 +8968,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -9061,7 +9077,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>275</v>
@@ -9069,7 +9085,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>276</v>
@@ -9077,13 +9093,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>657</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" t="s">
         <v>658</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C19" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -9200,93 +9216,93 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>528</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>530</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>532</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>535</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -9294,37 +9310,37 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>664</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -9339,7 +9355,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9702,40 +9718,40 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
